--- a/datosTotalesparaGompertzmun.xlsx
+++ b/datosTotalesparaGompertzmun.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3619,6 +3619,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>44038</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>314</v>
+      </c>
+      <c r="G148" t="n">
+        <v>147</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
